--- a/data_group/levene_test_prec_results.xlsx
+++ b/data_group/levene_test_prec_results.xlsx
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="C2">
-        <v>0.9749840853403795</v>
+        <v>0.9761236150801278</v>
       </c>
     </row>
     <row r="3">
@@ -401,7 +401,7 @@
         </is>
       </c>
       <c r="C3">
-        <v>0.9599718794201514</v>
+        <v>0.9629853784120213</v>
       </c>
     </row>
     <row r="4">
@@ -416,7 +416,7 @@
         </is>
       </c>
       <c r="C4">
-        <v>0.9043997166727582</v>
+        <v>0.9051285679038146</v>
       </c>
     </row>
     <row r="5">
@@ -431,7 +431,7 @@
         </is>
       </c>
       <c r="C5">
-        <v>0.877350749907011</v>
+        <v>0.8757518797216952</v>
       </c>
     </row>
     <row r="6">
@@ -446,7 +446,7 @@
         </is>
       </c>
       <c r="C6">
-        <v>0.8972971550100852</v>
+        <v>0.8958273707409998</v>
       </c>
     </row>
     <row r="7">
@@ -536,7 +536,7 @@
         </is>
       </c>
       <c r="C12">
-        <v>0.7985205022152138</v>
+        <v>0.9063183431034287</v>
       </c>
     </row>
     <row r="13">
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C13">
-        <v>0.8236187172976841</v>
+        <v>0.799870349465755</v>
       </c>
     </row>
     <row r="14">
@@ -566,7 +566,7 @@
         </is>
       </c>
       <c r="C14">
-        <v>0.5697745250180544</v>
+        <v>0.511960460753708</v>
       </c>
     </row>
     <row r="15">
@@ -581,7 +581,7 @@
         </is>
       </c>
       <c r="C15">
-        <v>0.3296047312926588</v>
+        <v>0.3013762925612091</v>
       </c>
     </row>
     <row r="16">
@@ -596,7 +596,7 @@
         </is>
       </c>
       <c r="C16">
-        <v>0.3292490589144974</v>
+        <v>0.3220596853761847</v>
       </c>
     </row>
     <row r="17">
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="C22">
-        <v>0.9581387362188314</v>
+        <v>0.9688183845281156</v>
       </c>
     </row>
     <row r="23">
@@ -701,7 +701,7 @@
         </is>
       </c>
       <c r="C23">
-        <v>0.9744688129737373</v>
+        <v>0.9824417078999277</v>
       </c>
     </row>
     <row r="24">
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="C24">
-        <v>0.9531919150375288</v>
+        <v>0.9597675955227131</v>
       </c>
     </row>
     <row r="25">
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="C25">
-        <v>0.8985849986509449</v>
+        <v>0.9081153035851038</v>
       </c>
     </row>
     <row r="26">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="C26">
-        <v>0.8397193471962081</v>
+        <v>0.8389151043348938</v>
       </c>
     </row>
     <row r="27">
